--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MINNESOTA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MINNESOTA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1062"/>
+  <dimension ref="A1:D1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -654,7 +654,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -1205,7 +1205,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C63">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C65">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C99">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C112">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C126">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C138">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C143">
@@ -2343,12 +2343,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C149">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C153">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C158">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C163">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C172">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C177">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C185">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C190">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C199">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C204">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C211">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C222">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C228">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C232">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C242">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C244">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C249">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C253">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C258">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C261">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C265">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C268">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C278">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C282">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C289">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C292">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C294">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C308">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C310">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C312">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C317">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C329">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C332">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C334">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C345">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C348">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C353">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C359">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C368">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C371">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C380">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C384">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C385">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C387">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C391">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C397">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C402">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C409">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C411">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C413">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C420">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C423">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C426">
@@ -6143,7 +6143,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C439">
@@ -6922,13 +6922,13 @@
         <v>60</v>
       </c>
       <c r="D498">
-        <v>0.009303768026050551</v>
+        <v>0.009303768026050553</v>
       </c>
     </row>
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C499">
@@ -7019,7 +7019,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C506">
@@ -7058,7 +7058,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C509">
@@ -7136,7 +7136,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C515">
@@ -7149,7 +7149,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C516">
@@ -7253,7 +7253,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C524">
@@ -7297,7 +7297,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C527">
@@ -7614,7 +7614,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C551">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C554">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C559">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C565">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C576">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C596">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C614">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C621">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C641">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C674">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C678">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C681">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C682">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C683">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C694">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C697">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C704">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C708">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C717">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C718">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C721">
@@ -9860,7 +9860,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C723">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C731">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C737">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C749">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C751">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C755">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C761">
@@ -10367,7 +10367,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C762">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C767">
@@ -10484,7 +10484,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C771">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C784">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C797">
@@ -10866,7 +10866,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C800">
@@ -10892,7 +10892,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C802">
@@ -10918,7 +10918,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C804">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C814">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C820">
@@ -11201,7 +11201,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C825">
@@ -11253,7 +11253,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C829">
@@ -11292,7 +11292,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C832">
@@ -11305,7 +11305,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C833">
@@ -11318,7 +11318,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C834">
@@ -11331,7 +11331,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C835">
@@ -12079,7 +12079,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C891">
@@ -12227,7 +12227,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C902">
@@ -12266,7 +12266,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C905">
@@ -12279,7 +12279,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C906">
@@ -12453,7 +12453,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C919">
@@ -12492,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C922">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C931">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C933">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C942">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C954">
@@ -12921,7 +12921,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C955">
@@ -12999,7 +12999,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C961">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C966">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C967">
@@ -13110,7 +13110,7 @@
         <v>59</v>
       </c>
       <c r="D969">
-        <v>0.009148705225616375</v>
+        <v>0.009148705225616376</v>
       </c>
     </row>
     <row r="970">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C976">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C979">
@@ -13246,7 +13246,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C980">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C983">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C990">
@@ -13623,7 +13623,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1009">
@@ -13828,7 +13828,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1024">
@@ -13971,7 +13971,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1035">
@@ -14010,7 +14010,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1038">
@@ -14114,7 +14114,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1046">
@@ -14127,7 +14127,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1047">
@@ -14140,7 +14140,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1048">
@@ -14179,7 +14179,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1051">
@@ -14252,41 +14252,6 @@
       </c>
       <c r="D1056">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
